--- a/SpringSecurity/使用SpringSocial开发第三方登陆.xlsx
+++ b/SpringSecurity/使用SpringSocial开发第三方登陆.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30168" windowHeight="13884"/>
+    <workbookView windowWidth="24648" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用SpringSocial开发第三方登陆" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -31,14 +31,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -54,21 +46,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,9 +75,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +88,20 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,25 +121,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,16 +135,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +158,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -184,7 +184,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,31 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,61 +256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +274,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,25 +322,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,25 +346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,17 +378,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -404,6 +398,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,15 +437,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,133 +495,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2108,16 +2108,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实例</a:t>
+            <a:t>的实例</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
             <a:solidFill>
@@ -2135,7 +2126,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>这个</a:t>
+            <a:t>这个工厂创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Connection</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -2144,7 +2144,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>工厂</a:t>
+            <a:t>实例就会需要用到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>OAuth2</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -2153,142 +2162,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>创建</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>onnection</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实例</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>需要</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>OAuth2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>协议认证流程中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>获取</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用户</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>协议认证流程中获取到的用户信息 </a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -2715,7 +2589,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>中</a:t>
+            <a:t>中每个服务提供商提供的用户信息格式是不一样的，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ApiAdapter</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
@@ -2724,7 +2607,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>每个</a:t>
+            <a:t>的作用就是将不同的数据结构转化为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Connection</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
@@ -2733,268 +2625,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>服务</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>提供</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>商</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>提供的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用户</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>信息</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>格式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>不一样</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>piA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>dapter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>作用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>将</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>不同</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>数据</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>结构</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>转化</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>onnection</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>标准</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>数据结构</a:t>
+            <a:t>标准的数据结构</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
             <a:solidFill>
@@ -3115,15 +2746,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>user_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>id</a:t>
+            <a:t>user_id</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
@@ -3345,70 +2968,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>数据</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>进行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>增删改查</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>操作</a:t>
+            <a:t>表中的数据进行增删改查的操作</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -5162,11 +4722,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
-            <a:t>申请</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
-            <a:t>令牌</a:t>
+            <a:t>申请令牌</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1"/>
         </a:p>
@@ -5382,11 +4938,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
-            <a:t>发放</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
-            <a:t>令牌</a:t>
+            <a:t>发放令牌</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1400" b="1"/>
         </a:p>
@@ -6063,8 +5615,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6080,8 +5632,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/SpringSecurity/使用SpringSocial开发第三方登陆.xlsx
+++ b/SpringSecurity/使用SpringSocial开发第三方登陆.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24648" windowHeight="12000" activeTab="1"/>
+    <workbookView windowWidth="24648" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="使用SpringSocial开发第三方登陆" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,36 +32,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,36 +48,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,7 +69,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,9 +145,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,25 +184,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,13 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +256,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,61 +328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,43 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,15 +375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -398,6 +389,54 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,30 +460,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -460,21 +475,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,19 +495,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,112 +516,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -892,13 +892,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -909,7 +909,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4465320" y="5189220"/>
+          <a:off x="4457700" y="5189220"/>
           <a:ext cx="2346960" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5615,8 +5615,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5632,7 +5632,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>

--- a/SpringSecurity/使用SpringSocial开发第三方登陆.xlsx
+++ b/SpringSecurity/使用SpringSocial开发第三方登陆.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24648" windowHeight="12360"/>
+    <workbookView windowHeight="18090"/>
   </bookViews>
   <sheets>
     <sheet name="使用SpringSocial开发第三方登陆" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -47,7 +47,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,7 +69,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,29 +84,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,11 +98,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,9 +137,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,13 +146,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +166,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -184,37 +184,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,19 +220,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +256,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,37 +298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,43 +322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +340,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,16 +378,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -402,26 +402,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,17 +432,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,16 +495,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -513,16 +513,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,97 +531,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,8 +712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3878580" y="1470660"/>
-          <a:ext cx="3521075" cy="5402580"/>
+          <a:off x="4286250" y="1379220"/>
+          <a:ext cx="3928745" cy="5071110"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -793,8 +793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4472940" y="3619500"/>
-          <a:ext cx="2346960" cy="1478280"/>
+          <a:off x="4948555" y="3402330"/>
+          <a:ext cx="2618740" cy="1386840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,8 +909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="5189220"/>
-          <a:ext cx="2346960" cy="1478280"/>
+          <a:off x="4933315" y="4869180"/>
+          <a:ext cx="2618740" cy="1386840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1111,8 +1111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4488180" y="2262505"/>
-          <a:ext cx="2346960" cy="1113155"/>
+          <a:off x="4963795" y="2125345"/>
+          <a:ext cx="2618740" cy="1044575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,8 +1318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4008120" y="815340"/>
-          <a:ext cx="3322320" cy="487680"/>
+          <a:off x="4415790" y="769620"/>
+          <a:ext cx="3729990" cy="453390"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1410,8 +1410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9060180" y="1615440"/>
-          <a:ext cx="3521075" cy="6430645"/>
+          <a:off x="10011410" y="1524000"/>
+          <a:ext cx="3928745" cy="6019800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1566,8 +1566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9136380" y="914400"/>
-          <a:ext cx="3322320" cy="487680"/>
+          <a:off x="10087610" y="857250"/>
+          <a:ext cx="3729990" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1757,8 +1757,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9243060" y="2293620"/>
-          <a:ext cx="3070860" cy="1751965"/>
+          <a:off x="10262235" y="2156460"/>
+          <a:ext cx="3410585" cy="1637665"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1910,8 +1910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9227820" y="4122420"/>
-          <a:ext cx="3070860" cy="3855720"/>
+          <a:off x="10246995" y="3870960"/>
+          <a:ext cx="3410585" cy="3615690"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2203,8 +2203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9631680" y="5494020"/>
-          <a:ext cx="2346960" cy="450850"/>
+          <a:off x="10650855" y="5151120"/>
+          <a:ext cx="2618740" cy="427990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,8 +2378,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7467600" y="6042660"/>
-          <a:ext cx="2011680" cy="0"/>
+          <a:off x="8282940" y="5665470"/>
+          <a:ext cx="2215515" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2428,8 +2428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9532620" y="6141720"/>
-          <a:ext cx="2582545" cy="1525270"/>
+          <a:off x="10551795" y="5764530"/>
+          <a:ext cx="2854325" cy="1433830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2665,8 +2665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14951075" y="1394460"/>
-          <a:ext cx="2407285" cy="2925445"/>
+          <a:off x="16581755" y="1314450"/>
+          <a:ext cx="2679065" cy="2742565"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2786,8 +2786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14020800" y="5486400"/>
-          <a:ext cx="3070860" cy="1751965"/>
+          <a:off x="15583535" y="5143500"/>
+          <a:ext cx="3410585" cy="1649095"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3000,8 +3000,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12611100" y="6210300"/>
-          <a:ext cx="1325880" cy="7620"/>
+          <a:off x="13970000" y="5829300"/>
+          <a:ext cx="1461770" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3050,8 +3050,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="15834360" y="4358640"/>
-          <a:ext cx="7620" cy="1036320"/>
+          <a:off x="17532985" y="4095750"/>
+          <a:ext cx="7620" cy="967740"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3105,8 +3105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3680460" y="2933700"/>
-          <a:ext cx="2964180" cy="7025640"/>
+          <a:off x="4088130" y="2750820"/>
+          <a:ext cx="3235960" cy="6591300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3178,8 +3178,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4053840" y="4206240"/>
-          <a:ext cx="2331720" cy="2956560"/>
+          <a:off x="4461510" y="3943350"/>
+          <a:ext cx="2603500" cy="2773680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3262,8 +3262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3992880" y="7528560"/>
-          <a:ext cx="2331720" cy="1622425"/>
+          <a:off x="4400550" y="7059930"/>
+          <a:ext cx="2603500" cy="1519555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3445,8 +3445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4183380" y="8435340"/>
-          <a:ext cx="1981200" cy="586740"/>
+          <a:off x="4591050" y="7909560"/>
+          <a:ext cx="2252980" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3510,8 +3510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10294620" y="1028700"/>
-          <a:ext cx="1668780" cy="1562100"/>
+          <a:off x="11381740" y="971550"/>
+          <a:ext cx="1872615" cy="1459230"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
           <a:avLst/>
@@ -3563,8 +3563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="4533900"/>
-          <a:ext cx="5463540" cy="4251960"/>
+          <a:off x="9638030" y="4259580"/>
+          <a:ext cx="6075045" cy="3977640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3634,8 +3634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12352020" y="1234440"/>
-          <a:ext cx="2727325" cy="335915"/>
+          <a:off x="13710920" y="1165860"/>
+          <a:ext cx="2999105" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3693,8 +3693,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11117580" y="2590800"/>
-          <a:ext cx="3810" cy="1935480"/>
+          <a:off x="12340590" y="2430780"/>
+          <a:ext cx="3810" cy="1821180"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3740,8 +3740,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10424160" y="3147060"/>
-          <a:ext cx="1394460" cy="335915"/>
+          <a:off x="11579225" y="2952750"/>
+          <a:ext cx="1530350" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3898,8 +3898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6507480" y="4442460"/>
-          <a:ext cx="2316480" cy="335915"/>
+          <a:off x="7186930" y="4168140"/>
+          <a:ext cx="2588260" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4058,8 +4058,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6385560" y="2362200"/>
-          <a:ext cx="4153535" cy="1844040"/>
+          <a:off x="7065010" y="2225040"/>
+          <a:ext cx="4629150" cy="1718310"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4108,8 +4108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="3048000"/>
-          <a:ext cx="2087880" cy="335915"/>
+          <a:off x="8435340" y="2865120"/>
+          <a:ext cx="2291715" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4266,8 +4266,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438900" y="5295900"/>
-          <a:ext cx="2270760" cy="15240"/>
+          <a:off x="7118350" y="4972050"/>
+          <a:ext cx="2542540" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4316,8 +4316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6225540" y="5440680"/>
-          <a:ext cx="2780665" cy="335915"/>
+          <a:off x="6904990" y="5109210"/>
+          <a:ext cx="3052445" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4484,8 +4484,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6423660" y="4922520"/>
-          <a:ext cx="2324100" cy="7620"/>
+          <a:off x="7103110" y="4625340"/>
+          <a:ext cx="2595880" cy="3810"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4534,8 +4534,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6370320" y="6004560"/>
-          <a:ext cx="2324100" cy="7620"/>
+          <a:off x="7049770" y="5638800"/>
+          <a:ext cx="2595880" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4584,8 +4584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7078980" y="6103620"/>
-          <a:ext cx="1279525" cy="335915"/>
+          <a:off x="7826375" y="5726430"/>
+          <a:ext cx="1415415" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4750,8 +4750,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6339840" y="6598920"/>
-          <a:ext cx="2232660" cy="15240"/>
+          <a:off x="7019290" y="6187440"/>
+          <a:ext cx="2504440" cy="15240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4800,8 +4800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="6751320"/>
-          <a:ext cx="1279525" cy="335915"/>
+          <a:off x="7757795" y="6339840"/>
+          <a:ext cx="1415415" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4968,8 +4968,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6324600" y="8336280"/>
-          <a:ext cx="2392680" cy="3810"/>
+          <a:off x="7004050" y="7821930"/>
+          <a:ext cx="2664460" cy="3810"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5018,8 +5018,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6949440" y="7924800"/>
-          <a:ext cx="1576705" cy="335915"/>
+          <a:off x="7696835" y="7433310"/>
+          <a:ext cx="1712595" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5196,8 +5196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="7513320"/>
-          <a:ext cx="2780665" cy="1059180"/>
+          <a:off x="10840720" y="7044690"/>
+          <a:ext cx="3052445" cy="1002030"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5615,11 +5615,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5636,7 +5636,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/SpringSecurity/使用SpringSocial开发第三方登陆.xlsx
+++ b/SpringSecurity/使用SpringSocial开发第三方登陆.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18090"/>
+    <workbookView windowWidth="22485" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="使用SpringSocial开发第三方登陆" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,13 +32,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -46,15 +39,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -62,7 +47,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,46 +90,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -131,21 +99,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,9 +113,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +146,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,25 +184,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +232,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,91 +328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,31 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,21 +375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,6 +402,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -428,30 +422,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +445,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,133 +495,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -776,15 +776,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -793,8 +793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4948555" y="3402330"/>
-          <a:ext cx="2618740" cy="1386840"/>
+          <a:off x="4980940" y="3255010"/>
+          <a:ext cx="2618740" cy="1562735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,15 +892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>189865</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -909,8 +909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933315" y="4869180"/>
-          <a:ext cx="2618740" cy="1386840"/>
+          <a:off x="4932680" y="4869180"/>
+          <a:ext cx="2618740" cy="1534160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2058,7 +2058,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(OAuth2ConnetcionFactory)</a:t>
+            <a:t>(OAuth2ConnectionFactory)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
             <a:solidFill>
@@ -5615,8 +5615,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
